--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/建筑业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/建筑业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.768605711689905</v>
+        <v>0.739494628813591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.022168857045367</v>
+        <v>0.022409863539324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.014706820061176</v>
+        <v>0.015686062283644</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004134134841233</v>
+        <v>0.004388966852812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.118066259462247</v>
+        <v>0.148368177993072</v>
       </c>
       <c r="H2" t="n">
-        <v>0.039138240177516</v>
+        <v>0.030816021622085</v>
       </c>
       <c r="I2" t="n">
-        <v>0.012367134549147</v>
+        <v>0.014414112844451</v>
       </c>
       <c r="J2" t="n">
-        <v>0.231394288310094</v>
+        <v>0.260505371186409</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009534748685326</v>
+        <v>0.010595837828242</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004055669011326</v>
+        <v>0.004182138879637</v>
       </c>
       <c r="M2" t="n">
-        <v>0.032249240613998</v>
+        <v>0.034566193895329</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08175462364749</v>
+        <v>0.076075510933104</v>
       </c>
       <c r="O2" t="n">
-        <v>0.020308571047358</v>
+        <v>0.012877572107357</v>
       </c>
       <c r="P2" t="n">
-        <v>0.028704042373138</v>
+        <v>0.041203021252204</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.013559232575041</v>
+        <v>0.007818763472595001</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004275224406694</v>
+        <v>0.004645271189401</v>
       </c>
       <c r="S2" t="n">
-        <v>0.072256851925563</v>
+        <v>0.056520059096683</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09050716093729499</v>
+        <v>0.107741868524333</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0142152915828</v>
+        <v>0.010884062579664</v>
       </c>
       <c r="V2" t="n">
-        <v>0.192731564940766</v>
+        <v>0.157013698883694</v>
       </c>
       <c r="W2" t="n">
-        <v>0.008755172505674</v>
+        <v>0.009450838682588</v>
       </c>
       <c r="X2" t="n">
-        <v>0.212606910881912</v>
+        <v>0.226353924930898</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003904248728934</v>
+        <v>0.003988032608884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.739494628813591</v>
+        <v>0.734477378074243</v>
       </c>
       <c r="D3" t="n">
-        <v>0.022409863539324</v>
+        <v>0.027090835866831</v>
       </c>
       <c r="E3" t="n">
-        <v>0.015686062283644</v>
+        <v>0.042679102837922</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004388966852812</v>
+        <v>0.007885763912840999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.148368177993072</v>
+        <v>0.162046744261952</v>
       </c>
       <c r="H3" t="n">
-        <v>0.030816021622085</v>
+        <v>0.043760651117904</v>
       </c>
       <c r="I3" t="n">
-        <v>0.014414112844451</v>
+        <v>0.011874307312655</v>
       </c>
       <c r="J3" t="n">
-        <v>0.260505371186409</v>
+        <v>0.265522621925757</v>
       </c>
       <c r="K3" t="n">
-        <v>0.010595837828242</v>
+        <v>0.026946427685643</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004182138879637</v>
+        <v>0.006839717537923</v>
       </c>
       <c r="M3" t="n">
-        <v>0.034566193895329</v>
+        <v>0.024454753359708</v>
       </c>
       <c r="N3" t="n">
-        <v>0.076075510933104</v>
+        <v>0.050941295520981</v>
       </c>
       <c r="O3" t="n">
-        <v>0.012877572107357</v>
+        <v>0.012684608985538</v>
       </c>
       <c r="P3" t="n">
-        <v>0.041203021252204</v>
+        <v>0.03694807391781</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007818763472595001</v>
+        <v>0.013685694433942</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004645271189401</v>
+        <v>0.004384798770243</v>
       </c>
       <c r="S3" t="n">
-        <v>0.056520059096683</v>
+        <v>0.054653496433341</v>
       </c>
       <c r="T3" t="n">
-        <v>0.107741868524333</v>
+        <v>0.042603382567396</v>
       </c>
       <c r="U3" t="n">
-        <v>0.010884062579664</v>
+        <v>0.005856616115217</v>
       </c>
       <c r="V3" t="n">
-        <v>0.157013698883694</v>
+        <v>0.199817124982119</v>
       </c>
       <c r="W3" t="n">
-        <v>0.009450838682588</v>
+        <v>0.027819306410389</v>
       </c>
       <c r="X3" t="n">
-        <v>0.226353924930898</v>
+        <v>0.194522994952569</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003988032608884</v>
+        <v>0.002504303017075</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734477378074243</v>
+        <v>0.769514675430407</v>
       </c>
       <c r="D4" t="n">
-        <v>0.027090835866831</v>
+        <v>0.029653937102068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.042679102837922</v>
+        <v>0.05646765085845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007885763912840999</v>
+        <v>0.009133215559815999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.162046744261952</v>
+        <v>0.144010678291302</v>
       </c>
       <c r="H4" t="n">
-        <v>0.043760651117904</v>
+        <v>0.04681718834585</v>
       </c>
       <c r="I4" t="n">
-        <v>0.011874307312655</v>
+        <v>0.008046395237663</v>
       </c>
       <c r="J4" t="n">
-        <v>0.265522621925757</v>
+        <v>0.230485324569592</v>
       </c>
       <c r="K4" t="n">
-        <v>0.026946427685643</v>
+        <v>0.03208619432562</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006839717537923</v>
+        <v>0.010561655863911</v>
       </c>
       <c r="M4" t="n">
-        <v>0.024454753359708</v>
+        <v>0.033078761716198</v>
       </c>
       <c r="N4" t="n">
-        <v>0.050941295520981</v>
+        <v>0.057371593548179</v>
       </c>
       <c r="O4" t="n">
-        <v>0.012684608985538</v>
+        <v>0.010298881089179</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03694807391781</v>
+        <v>0.032667485964882</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.013685694433942</v>
+        <v>0.01269202495266</v>
       </c>
       <c r="R4" t="n">
-        <v>0.004384798770243</v>
+        <v>0.006563418189932</v>
       </c>
       <c r="S4" t="n">
-        <v>0.054653496433341</v>
+        <v>0.045760765075745</v>
       </c>
       <c r="T4" t="n">
-        <v>0.042603382567396</v>
+        <v>0.058470980418778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.005856616115217</v>
+        <v>0.006266818016852</v>
       </c>
       <c r="V4" t="n">
-        <v>0.199817124982119</v>
+        <v>0.165650177108093</v>
       </c>
       <c r="W4" t="n">
-        <v>0.027819306410389</v>
+        <v>0.036065431275293</v>
       </c>
       <c r="X4" t="n">
-        <v>0.194522994952569</v>
+        <v>0.194462710737059</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.002504303017075</v>
+        <v>0.003874036322473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.769514675430407</v>
+        <v>0.758293620033832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.029653937102068</v>
+        <v>0.001390130579651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05646765085845</v>
+        <v>0.030410383023869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.009133215559815999</v>
+        <v>0.008287885229924999</v>
       </c>
       <c r="G5" t="n">
-        <v>0.144010678291302</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.04681718834585</v>
-      </c>
+        <v>0.149536293662</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.008046395237663</v>
+        <v>0.008556879445814999</v>
       </c>
       <c r="J5" t="n">
-        <v>0.230485324569592</v>
+        <v>0.241706379966168</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03208619432562</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.010561655863911</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.033078761716198</v>
-      </c>
+        <v>0.031938273127498</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.057371593548179</v>
+        <v>0.05040851560901</v>
       </c>
       <c r="O5" t="n">
-        <v>0.010298881089179</v>
+        <v>0.058801183204207</v>
       </c>
       <c r="P5" t="n">
-        <v>0.032667485964882</v>
+        <v>0.035288394314193</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01269202495266</v>
+        <v>0.013479238639733</v>
       </c>
       <c r="R5" t="n">
-        <v>0.006563418189932</v>
+        <v>0.001362981967423</v>
       </c>
       <c r="S5" t="n">
-        <v>0.045760765075745</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.058470980418778</v>
-      </c>
+        <v>0.04832481254416</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.006266818016852</v>
+        <v>0.008369592612158</v>
       </c>
       <c r="V5" t="n">
-        <v>0.165650177108093</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.036065431275293</v>
-      </c>
+        <v>0.153726915222343</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.194462710737059</v>
+        <v>0.176670725243541</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003874036322473</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.758293620033832</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001390130579651</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.030410383023869</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.008287885229924999</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.149536293662</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.008556879445814999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.241706379966168</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.031938273127498</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.05040851560901</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.058801183204207</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.035288394314193</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.013479238639733</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.001362981967423</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.04832481254416</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.008369592612158</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.153726915222343</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.176670725243541</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.002126411442753</v>
       </c>
     </row>
